--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -55,36 +49,18 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -97,10 +73,22 @@
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
@@ -109,88 +97,73 @@
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>sure</t>
   </si>
   <si>
     <t>share</t>
@@ -211,19 +184,19 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>co</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>co</t>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -581,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.88</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.32</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7337662337662337</v>
+        <v>0.2810077519379845</v>
       </c>
       <c r="C7">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="D7">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>0.8518518518518519</v>
@@ -900,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.631578947368421</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,49 +973,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5833333333333334</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>212</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L10">
+        <v>68</v>
+      </c>
+      <c r="M10">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>14</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10">
-        <v>0.7962962962962963</v>
-      </c>
-      <c r="L10">
-        <v>43</v>
-      </c>
-      <c r="M10">
-        <v>43</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4377682403433477</v>
+        <v>0.05361930294906166</v>
       </c>
       <c r="C11">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,757 +1041,565 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>131</v>
+        <v>353</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L11">
+        <v>47</v>
+      </c>
+      <c r="M11">
+        <v>47</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L12">
+        <v>28</v>
+      </c>
+      <c r="M12">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="L13">
+        <v>91</v>
+      </c>
+      <c r="M13">
+        <v>91</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14">
+        <v>0.7535211267605634</v>
+      </c>
+      <c r="L14">
+        <v>107</v>
+      </c>
+      <c r="M14">
+        <v>107</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>0.7421875</v>
+      </c>
+      <c r="L15">
+        <v>95</v>
+      </c>
+      <c r="M15">
+        <v>95</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="L16">
+        <v>76</v>
+      </c>
+      <c r="M16">
+        <v>76</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L17">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <v>36</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18">
+        <v>0.7</v>
+      </c>
+      <c r="L18">
+        <v>35</v>
+      </c>
+      <c r="M18">
+        <v>35</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K11">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L11">
+      <c r="K19">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L19">
+        <v>32</v>
+      </c>
+      <c r="M19">
+        <v>32</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>0.65625</v>
+      </c>
+      <c r="L20">
+        <v>105</v>
+      </c>
+      <c r="M20">
+        <v>105</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>23</v>
       </c>
-      <c r="M11">
-        <v>23</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>16</v>
-      </c>
-      <c r="J12" s="1" t="s">
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L22">
+        <v>56</v>
+      </c>
+      <c r="M22">
+        <v>56</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23">
+        <v>0.5848563968668408</v>
+      </c>
+      <c r="L23">
+        <v>224</v>
+      </c>
+      <c r="M23">
+        <v>224</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="L24">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L25">
+        <v>19</v>
+      </c>
+      <c r="M25">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="L26">
+        <v>49</v>
+      </c>
+      <c r="M26">
+        <v>49</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <v>0.5264705882352941</v>
+      </c>
+      <c r="L28">
+        <v>179</v>
+      </c>
+      <c r="M28">
+        <v>179</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29">
+        <v>0.4813559322033898</v>
+      </c>
+      <c r="L29">
+        <v>142</v>
+      </c>
+      <c r="M29">
+        <v>142</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>35</v>
       </c>
-      <c r="K12">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L12">
-        <v>40</v>
-      </c>
-      <c r="M12">
-        <v>40</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L13">
-        <v>13</v>
-      </c>
-      <c r="M13">
-        <v>13</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.35</v>
-      </c>
-      <c r="C14">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>52</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14">
-        <v>0.76</v>
-      </c>
-      <c r="L14">
-        <v>19</v>
-      </c>
-      <c r="M14">
-        <v>19</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>28</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15">
-        <v>0.75</v>
-      </c>
-      <c r="L15">
-        <v>18</v>
-      </c>
-      <c r="M15">
-        <v>18</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C16">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>65</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L16">
-        <v>27</v>
-      </c>
-      <c r="M16">
-        <v>27</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>36</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L17">
-        <v>40</v>
-      </c>
-      <c r="M17">
-        <v>40</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2</v>
-      </c>
-      <c r="C18">
-        <v>22</v>
-      </c>
-      <c r="D18">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>88</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.6875</v>
-      </c>
-      <c r="L18">
-        <v>11</v>
-      </c>
-      <c r="M18">
-        <v>11</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.1135135135135135</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>0.05</v>
-      </c>
-      <c r="F19">
-        <v>0.95</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>164</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.68</v>
-      </c>
-      <c r="L19">
-        <v>17</v>
-      </c>
-      <c r="M19">
-        <v>17</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.6575342465753424</v>
-      </c>
-      <c r="L20">
-        <v>48</v>
-      </c>
-      <c r="M20">
-        <v>48</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>0.64</v>
-      </c>
-      <c r="L22">
-        <v>16</v>
-      </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K23">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L23">
-        <v>21</v>
-      </c>
-      <c r="M23">
-        <v>21</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+      <c r="K31">
+        <v>0.4435146443514644</v>
+      </c>
+      <c r="L31">
+        <v>106</v>
+      </c>
+      <c r="M31">
+        <v>106</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K24">
-        <v>0.6103286384976526</v>
-      </c>
-      <c r="L24">
-        <v>130</v>
-      </c>
-      <c r="M24">
-        <v>130</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L25">
-        <v>10</v>
-      </c>
-      <c r="M25">
-        <v>10</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L26">
-        <v>11</v>
-      </c>
-      <c r="M26">
-        <v>11</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27">
-        <v>0.5694444444444444</v>
-      </c>
-      <c r="L27">
-        <v>82</v>
-      </c>
-      <c r="M27">
-        <v>82</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L28">
-        <v>17</v>
-      </c>
-      <c r="M28">
-        <v>17</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="L29">
-        <v>19</v>
-      </c>
-      <c r="M29">
-        <v>19</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30">
-        <v>0.5193798449612403</v>
-      </c>
-      <c r="L30">
-        <v>67</v>
-      </c>
-      <c r="M30">
-        <v>67</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31">
-        <v>0.5</v>
-      </c>
-      <c r="L31">
-        <v>14</v>
-      </c>
-      <c r="M31">
-        <v>14</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L32">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1830,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.4864864864864865</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1856,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.4565217391304348</v>
+        <v>0.390625</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1882,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.34375</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1908,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.2894736842105263</v>
+        <v>0.09330143540669857</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1934,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.08585858585858586</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1960,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>181</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.06698564593301436</v>
+        <v>0.06375838926174497</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1986,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>195</v>
+        <v>837</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.06097560975609756</v>
+        <v>0.04550499445061043</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2012,189 +1793,163 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>385</v>
+        <v>860</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.05633802816901409</v>
+        <v>0.04173106646058733</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>402</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.04761904761904762</v>
+        <v>0.04076850984067479</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>300</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.04279279279279279</v>
+        <v>0.03699421965317919</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>425</v>
+        <v>833</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.03571428571428571</v>
+        <v>0.02554154542515357</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>270</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.03398926654740608</v>
+        <v>0.02008788449466416</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="N44">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O44">
-        <v>0.12</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1080</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.0169811320754717</v>
+        <v>0.01815038893690579</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N45">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="O45">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K46">
-        <v>0.01477199743095697</v>
-      </c>
-      <c r="L46">
-        <v>23</v>
-      </c>
-      <c r="M46">
-        <v>30</v>
-      </c>
-      <c r="N46">
-        <v>0.77</v>
-      </c>
-      <c r="O46">
-        <v>0.23</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>1534</v>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,79 +70,79 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>protect</t>
   </si>
   <si>
     <t>like</t>
@@ -151,52 +151,55 @@
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>retail</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +568,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +700,13 @@
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.636986301369863</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="C5">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D5">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.32</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>51</v>
+        <v>364</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2810077519379845</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C7">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>371</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2275132275132275</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1879194630872483</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.7734375</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1587301587301587</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.05361930294906166</v>
+        <v>0.06970509383378017</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1076,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1102,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7583333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1117,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1125,13 +1128,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7535211267605634</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L14">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="M14">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1151,13 +1154,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7421875</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L15">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1169,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1177,13 +1180,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7169811320754716</v>
+        <v>0.6875</v>
       </c>
       <c r="L16">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1195,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1203,13 +1206,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7058823529411765</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1229,13 +1232,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1247,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1255,13 +1258,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1273,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1281,13 +1284,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.65625</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L20">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1299,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1307,13 +1310,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6349206349206349</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1325,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1333,13 +1336,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5957446808510638</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L22">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1351,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1359,13 +1362,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5848563968668408</v>
+        <v>0.587467362924282</v>
       </c>
       <c r="L23">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1377,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1385,13 +1388,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5777777777777777</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1411,13 +1414,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5588235294117647</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1429,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1437,13 +1440,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.550561797752809</v>
+        <v>0.54</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1455,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1463,13 +1466,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5416666666666666</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1481,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1489,13 +1492,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5264705882352941</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L28">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M28">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1507,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1515,13 +1518,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4813559322033898</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L29">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M29">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1541,13 +1544,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4615384615384616</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1559,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1567,13 +1570,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4435146443514644</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L31">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1585,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>133</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1593,13 +1596,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4102564102564102</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1611,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1619,13 +1622,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.3972602739726027</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1637,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1671,13 +1674,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.2714285714285714</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1689,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1697,25 +1700,25 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.09330143540669857</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>379</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1723,13 +1726,13 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.09134615384615384</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="L37">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1741,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1749,25 +1752,25 @@
         <v>53</v>
       </c>
       <c r="K38">
-        <v>0.06375838926174497</v>
+        <v>0.07054871220604703</v>
       </c>
       <c r="L38">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M38">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1775,13 +1778,13 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>0.04550499445061043</v>
+        <v>0.06971153846153846</v>
       </c>
       <c r="L39">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1793,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>860</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1801,25 +1804,25 @@
         <v>55</v>
       </c>
       <c r="K40">
-        <v>0.04173106646058733</v>
+        <v>0.04777777777777778</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N40">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="O40">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>620</v>
+        <v>857</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1827,25 +1830,25 @@
         <v>56</v>
       </c>
       <c r="K41">
-        <v>0.04076850984067479</v>
+        <v>0.0461361014994233</v>
       </c>
       <c r="L41">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="N41">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2047</v>
+        <v>827</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1853,25 +1856,25 @@
         <v>57</v>
       </c>
       <c r="K42">
-        <v>0.03699421965317919</v>
+        <v>0.03750586029067042</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>833</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1879,25 +1882,25 @@
         <v>58</v>
       </c>
       <c r="K43">
-        <v>0.02554154542515357</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L43">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.15</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3014</v>
+        <v>627</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1905,13 +1908,13 @@
         <v>59</v>
       </c>
       <c r="K44">
-        <v>0.02008788449466416</v>
+        <v>0.02297734627831715</v>
       </c>
       <c r="L44">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M44">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N44">
         <v>0.8100000000000001</v>
@@ -1923,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3122</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1931,25 +1934,51 @@
         <v>60</v>
       </c>
       <c r="K45">
-        <v>0.01815038893690579</v>
+        <v>0.02068252326783868</v>
       </c>
       <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="M45">
         <v>21</v>
       </c>
-      <c r="M45">
-        <v>25</v>
-      </c>
       <c r="N45">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="O45">
-        <v>0.16</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>1136</v>
+        <v>947</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46">
+        <v>0.0163265306122449</v>
+      </c>
+      <c r="L46">
+        <v>52</v>
+      </c>
+      <c r="M46">
+        <v>68</v>
+      </c>
+      <c r="N46">
+        <v>0.76</v>
+      </c>
+      <c r="O46">
+        <v>0.24</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>3133</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,21 @@
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,127 +73,139 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>support</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>consumer</t>
   </si>
   <si>
     <t>co</t>
@@ -557,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -676,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6575342465753424</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C5">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D5">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2945736434108527</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>364</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8482142857142857</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L6">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="M6">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2933333333333333</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.7926829268292683</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2698412698412698</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>138</v>
+        <v>361</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.7758620689655172</v>
+        <v>0.84375</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2281879194630873</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.7734375</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.126984126984127</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.7692307692307693</v>
+        <v>0.8303571428571429</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,63 +1041,87 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06970509383378017</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C11">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>216</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L11">
+        <v>27</v>
+      </c>
+      <c r="M11">
+        <v>27</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.06989247311827956</v>
+      </c>
+      <c r="C12">
         <v>26</v>
       </c>
-      <c r="D11">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>347</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L11">
-        <v>39</v>
-      </c>
-      <c r="M11">
-        <v>39</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0.04</v>
+      </c>
+      <c r="F12">
+        <v>0.96</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>346</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.7535211267605634</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1120,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1146,47 +1185,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>0.75</v>
+      </c>
+      <c r="L15">
+        <v>90</v>
+      </c>
+      <c r="M15">
+        <v>90</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>30</v>
-      </c>
-      <c r="K15">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L15">
-        <v>19</v>
-      </c>
-      <c r="M15">
-        <v>19</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1198,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.6808510638297872</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1224,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6792452830188679</v>
+        <v>0.74</v>
       </c>
       <c r="L18">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1250,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1276,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6388888888888888</v>
+        <v>0.70625</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1302,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1328,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6222222222222222</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1354,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.587467362924282</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L23">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1380,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>158</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.574468085106383</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L24">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M24">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1406,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5730337078651685</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1432,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.54</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1458,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.5205479452054794</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1484,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.5147058823529411</v>
+        <v>0.5509138381201044</v>
       </c>
       <c r="L28">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="M28">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1510,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5084745762711864</v>
+        <v>0.535593220338983</v>
       </c>
       <c r="L29">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="M29">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1536,47 +1575,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4871794871794872</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L30">
+        <v>35</v>
+      </c>
+      <c r="M30">
+        <v>35</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>38</v>
-      </c>
-      <c r="M30">
-        <v>38</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>40</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4461538461538462</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1588,47 +1627,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L32">
+        <v>42</v>
+      </c>
+      <c r="M32">
+        <v>42</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>47</v>
-      </c>
-      <c r="K32">
-        <v>0.4418604651162791</v>
-      </c>
-      <c r="L32">
-        <v>19</v>
-      </c>
-      <c r="M32">
-        <v>19</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4351464435146444</v>
+        <v>0.4267782426778243</v>
       </c>
       <c r="L33">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M33">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1640,21 +1679,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.390625</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1666,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.3285714285714286</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1692,47 +1731,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.1392405063291139</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>136</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.08133971291866028</v>
+        <v>0.375</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1744,47 +1783,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>384</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.07054871220604703</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L38">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="N38">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>830</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.06971153846153846</v>
+        <v>0.1339712918660287</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1796,189 +1835,293 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.04777777777777778</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L40">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>857</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.0461361014994233</v>
+        <v>0.0761478163493841</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.03750586029067042</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="L42">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="N42">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>2053</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.03389830508474576</v>
+        <v>0.06191950464396285</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>627</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.02297734627831715</v>
+        <v>0.05979381443298969</v>
       </c>
       <c r="L44">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="N44">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0.1899999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3019</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.02068252326783868</v>
+        <v>0.05549389567147614</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>947</v>
+        <v>851</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.0163265306122449</v>
+        <v>0.04400749063670412</v>
       </c>
       <c r="L46">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="M46">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="N46">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="O46">
-        <v>0.24</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>3133</v>
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47">
+        <v>0.04157043879907621</v>
+      </c>
+      <c r="L47">
+        <v>36</v>
+      </c>
+      <c r="M47">
+        <v>37</v>
+      </c>
+      <c r="N47">
+        <v>0.97</v>
+      </c>
+      <c r="O47">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48">
+        <v>0.03491755577109602</v>
+      </c>
+      <c r="L48">
+        <v>108</v>
+      </c>
+      <c r="M48">
+        <v>122</v>
+      </c>
+      <c r="N48">
+        <v>0.89</v>
+      </c>
+      <c r="O48">
+        <v>0.11</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49">
+        <v>0.02378490175801448</v>
+      </c>
+      <c r="L49">
+        <v>23</v>
+      </c>
+      <c r="M49">
+        <v>24</v>
+      </c>
+      <c r="N49">
+        <v>0.96</v>
+      </c>
+      <c r="O49">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50">
+        <v>0.02226403261210411</v>
+      </c>
+      <c r="L50">
+        <v>71</v>
+      </c>
+      <c r="M50">
+        <v>83</v>
+      </c>
+      <c r="N50">
+        <v>0.86</v>
+      </c>
+      <c r="O50">
+        <v>0.14</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3118</v>
       </c>
     </row>
   </sheetData>
